--- a/SensitivityAnalysisSpreadSheets/Ordinance Arm Time/OrdinanceArmTime10 aircraft 9_1_+20%.xlsx
+++ b/SensitivityAnalysisSpreadSheets/Ordinance Arm Time/OrdinanceArmTime10 aircraft 9_1_+20%.xlsx
@@ -69758,6 +69758,9 @@
           <t>Run 1</t>
         </is>
       </c>
+      <c r="B2" t="n">
+        <v>13.83333333333333</v>
+      </c>
       <c r="C2" t="n">
         <v>441.848888888889</v>
       </c>
@@ -69813,6 +69816,9 @@
           <t>Run 2</t>
         </is>
       </c>
+      <c r="B3" t="n">
+        <v>13.00616666666667</v>
+      </c>
       <c r="C3" t="n">
         <v>418.0572222222222</v>
       </c>
@@ -69868,6 +69874,9 @@
           <t>Run 3</t>
         </is>
       </c>
+      <c r="B4" t="n">
+        <v>12.8195</v>
+      </c>
       <c r="C4" t="n">
         <v>425.7383333333333</v>
       </c>
@@ -69923,6 +69932,9 @@
           <t>Run 4</t>
         </is>
       </c>
+      <c r="B5" t="n">
+        <v>12.26633333333333</v>
+      </c>
       <c r="C5" t="n">
         <v>421.2833333333334</v>
       </c>
@@ -69978,6 +69990,9 @@
           <t>Run 5</t>
         </is>
       </c>
+      <c r="B6" t="n">
+        <v>13.005</v>
+      </c>
       <c r="C6" t="n">
         <v>443.9738888888888</v>
       </c>
@@ -70033,6 +70048,9 @@
           <t>Run 6</t>
         </is>
       </c>
+      <c r="B7" t="n">
+        <v>12.99266666666667</v>
+      </c>
       <c r="C7" t="n">
         <v>436.6583333333333</v>
       </c>
@@ -70088,6 +70106,9 @@
           <t>Run 7</t>
         </is>
       </c>
+      <c r="B8" t="n">
+        <v>13.38216666666667</v>
+      </c>
       <c r="C8" t="n">
         <v>452.4816666666666</v>
       </c>
@@ -70143,6 +70164,9 @@
           <t>Run 8</t>
         </is>
       </c>
+      <c r="B9" t="n">
+        <v>13.40833333333333</v>
+      </c>
       <c r="C9" t="n">
         <v>457.7172222222222</v>
       </c>
@@ -70198,6 +70222,9 @@
           <t>Run 9</t>
         </is>
       </c>
+      <c r="B10" t="n">
+        <v>13.64683333333334</v>
+      </c>
       <c r="C10" t="n">
         <v>439.3011111111111</v>
       </c>
@@ -70253,6 +70280,9 @@
           <t>Run 10</t>
         </is>
       </c>
+      <c r="B11" t="n">
+        <v>14.10133333333333</v>
+      </c>
       <c r="C11" t="n">
         <v>450.2527777777779</v>
       </c>
@@ -70308,6 +70338,9 @@
           <t>Run 11</t>
         </is>
       </c>
+      <c r="B12" t="n">
+        <v>12.4045</v>
+      </c>
       <c r="C12" t="n">
         <v>433.4905555555555</v>
       </c>
@@ -70363,6 +70396,9 @@
           <t>Run 12</t>
         </is>
       </c>
+      <c r="B13" t="n">
+        <v>13.31733333333333</v>
+      </c>
       <c r="C13" t="n">
         <v>428.5277777777778</v>
       </c>
@@ -70418,6 +70454,9 @@
           <t>Run 13</t>
         </is>
       </c>
+      <c r="B14" t="n">
+        <v>12.56233333333333</v>
+      </c>
       <c r="C14" t="n">
         <v>415.1694444444445</v>
       </c>
@@ -70473,6 +70512,9 @@
           <t>Run 14</t>
         </is>
       </c>
+      <c r="B15" t="n">
+        <v>12.0185</v>
+      </c>
       <c r="C15" t="n">
         <v>422.9755555555555</v>
       </c>
@@ -70528,6 +70570,9 @@
           <t>Run 15</t>
         </is>
       </c>
+      <c r="B16" t="n">
+        <v>13.565</v>
+      </c>
       <c r="C16" t="n">
         <v>435.1383333333333</v>
       </c>
@@ -70583,6 +70628,9 @@
           <t>Run 16</t>
         </is>
       </c>
+      <c r="B17" t="n">
+        <v>12.95766666666667</v>
+      </c>
       <c r="C17" t="n">
         <v>456.8638888888889</v>
       </c>
@@ -70638,6 +70686,9 @@
           <t>Run 17</t>
         </is>
       </c>
+      <c r="B18" t="n">
+        <v>11.70733333333333</v>
+      </c>
       <c r="C18" t="n">
         <v>431.4205555555556</v>
       </c>
@@ -70693,6 +70744,9 @@
           <t>Run 18</t>
         </is>
       </c>
+      <c r="B19" t="n">
+        <v>13.84283333333333</v>
+      </c>
       <c r="C19" t="n">
         <v>452.9855555555556</v>
       </c>
@@ -70748,6 +70802,9 @@
           <t>Run 19</t>
         </is>
       </c>
+      <c r="B20" t="n">
+        <v>12.81083333333333</v>
+      </c>
       <c r="C20" t="n">
         <v>427.0838888888889</v>
       </c>
@@ -70803,6 +70860,9 @@
           <t>Run 20</t>
         </is>
       </c>
+      <c r="B21" t="n">
+        <v>13.75483333333333</v>
+      </c>
       <c r="C21" t="n">
         <v>448.2144444444444</v>
       </c>
@@ -70858,6 +70918,9 @@
           <t>Run 21</t>
         </is>
       </c>
+      <c r="B22" t="n">
+        <v>12.3315</v>
+      </c>
       <c r="C22" t="n">
         <v>418.825</v>
       </c>
@@ -70913,6 +70976,9 @@
           <t>Run 22</t>
         </is>
       </c>
+      <c r="B23" t="n">
+        <v>14.76516666666667</v>
+      </c>
       <c r="C23" t="n">
         <v>452.5077777777778</v>
       </c>
@@ -70968,6 +71034,9 @@
           <t>Run 23</t>
         </is>
       </c>
+      <c r="B24" t="n">
+        <v>14.535</v>
+      </c>
       <c r="C24" t="n">
         <v>440.555</v>
       </c>
@@ -71023,6 +71092,9 @@
           <t>Run 24</t>
         </is>
       </c>
+      <c r="B25" t="n">
+        <v>13.50666666666667</v>
+      </c>
       <c r="C25" t="n">
         <v>444.6155555555555</v>
       </c>
@@ -71078,6 +71150,9 @@
           <t>Run 25</t>
         </is>
       </c>
+      <c r="B26" t="n">
+        <v>13.11083333333333</v>
+      </c>
       <c r="C26" t="n">
         <v>426.0394444444444</v>
       </c>
@@ -71133,6 +71208,9 @@
           <t>Run 26</t>
         </is>
       </c>
+      <c r="B27" t="n">
+        <v>12.37683333333333</v>
+      </c>
       <c r="C27" t="n">
         <v>431.8494444444444</v>
       </c>
@@ -71188,6 +71266,9 @@
           <t>Run 27</t>
         </is>
       </c>
+      <c r="B28" t="n">
+        <v>14.00583333333333</v>
+      </c>
       <c r="C28" t="n">
         <v>455.375</v>
       </c>
@@ -71243,6 +71324,9 @@
           <t>Run 28</t>
         </is>
       </c>
+      <c r="B29" t="n">
+        <v>14.61</v>
+      </c>
       <c r="C29" t="n">
         <v>438.295</v>
       </c>
@@ -71298,6 +71382,9 @@
           <t>Run 29</t>
         </is>
       </c>
+      <c r="B30" t="n">
+        <v>13.02966666666667</v>
+      </c>
       <c r="C30" t="n">
         <v>432.9922222222223</v>
       </c>
@@ -71352,6 +71439,9 @@
         <is>
           <t>Run 30</t>
         </is>
+      </c>
+      <c r="B31" t="n">
+        <v>13.0925</v>
       </c>
       <c r="C31" t="n">
         <v>435.3961111111111</v>
